--- a/PWLPOS.v2/public/template_data/user.xlsx
+++ b/PWLPOS.v2/public/template_data/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7FD3066-961C-4153-A0A0-39AB80C659ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5680074E-09EF-45CE-A3B3-4E2BE8073E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB5F8813-C109-44DB-BD35-D4B6BF54467D}"/>
+    <workbookView minimized="1" xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{AB5F8813-C109-44DB-BD35-D4B6BF54467D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>level_id</t>
   </si>
@@ -48,29 +48,41 @@
     <t>password</t>
   </si>
   <si>
-    <t>staff10</t>
-  </si>
-  <si>
-    <t>Staff 10</t>
-  </si>
-  <si>
-    <t>staff20</t>
-  </si>
-  <si>
-    <t>Staff 20</t>
-  </si>
-  <si>
-    <t>manager6</t>
-  </si>
-  <si>
-    <t>Manager 6</t>
+    <t>Djoko Susanto</t>
+  </si>
+  <si>
+    <t>Bachtiar Karim</t>
+  </si>
+  <si>
+    <t>Susilo Wonowidjojo</t>
+  </si>
+  <si>
+    <t>customer1</t>
+  </si>
+  <si>
+    <t>customer2</t>
+  </si>
+  <si>
+    <t>customer3</t>
+  </si>
+  <si>
+    <t>customer4</t>
+  </si>
+  <si>
+    <t>customer5</t>
+  </si>
+  <si>
+    <t>Erick Thohir</t>
+  </si>
+  <si>
+    <t>Arini Subianto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +94,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98CD6B9-CE5D-4C3E-BE27-7C973870E7CD}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,13 +466,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2">
         <v>12345</v>
@@ -462,13 +480,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>12345</v>
@@ -476,19 +494,48 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>12345</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>12345</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PWLPOS.v2/public/template_data/user.xlsx
+++ b/PWLPOS.v2/public/template_data/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\Tugas-WebLanjut\PWLPOS.v2\public\template_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5680074E-09EF-45CE-A3B3-4E2BE8073E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9F47A7-821D-44B2-8D19-737EFEA39183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{AB5F8813-C109-44DB-BD35-D4B6BF54467D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AB5F8813-C109-44DB-BD35-D4B6BF54467D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Susilo Wonowidjojo</t>
   </si>
   <si>
-    <t>customer1</t>
-  </si>
-  <si>
     <t>customer2</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Arini Subianto</t>
+  </si>
+  <si>
+    <t>customer6</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>12345</v>
@@ -525,10 +525,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>12345</v>
